--- a/models/TFV-AED/tfv_009_AED_BIV_Met/External/AED2/sediment.xlsx
+++ b/models/TFV-AED/tfv_009_AED_BIV_Met/External/AED2/sediment.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/Users/matthipsey/Dropbox (ARC  Linkages)/GitHub/Lake-Erie/models/TFV-AED/tfv_007_AED_BIV/External/AED2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Spinny/Sims/Lake-Erie/tfv_009_AED_BIV_Met/External/AED2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B24977-1B35-BF44-B0F3-EBF7FF566299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD74258-B4FC-EA41-A523-3EBF78E70031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="5220" windowWidth="28040" windowHeight="17440" xr2:uid="{1F611769-546B-A949-908B-4D0E2238BA4F}"/>
+    <workbookView xWindow="-29320" yWindow="1880" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{1F611769-546B-A949-908B-4D0E2238BA4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Material Zone</t>
   </si>
@@ -123,6 +126,51 @@
   </si>
   <si>
     <t>AED ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !                 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_oxy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_rsi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_amm  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_nit  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_frp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_pon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_don  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_pop  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_dop  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_poc  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_doc  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_dic  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_ch4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fsed_feii </t>
   </si>
 </sst>
 </file>
@@ -476,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90A2E94-2403-6A40-AF7B-2FB1260A50AB}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1207,4 +1255,8855 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A188C9-0158-CA42-8629-6A0C8F222D06}">
+  <dimension ref="A2:DC62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="107" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:107">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <v>19</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <v>21</v>
+      </c>
+      <c r="X2">
+        <v>22</v>
+      </c>
+      <c r="Y2">
+        <v>23</v>
+      </c>
+      <c r="Z2">
+        <v>24</v>
+      </c>
+      <c r="AA2">
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <v>26</v>
+      </c>
+      <c r="AC2">
+        <v>27</v>
+      </c>
+      <c r="AD2">
+        <v>28</v>
+      </c>
+      <c r="AE2">
+        <v>29</v>
+      </c>
+      <c r="AF2">
+        <v>30</v>
+      </c>
+      <c r="AG2">
+        <v>31</v>
+      </c>
+      <c r="AH2">
+        <v>32</v>
+      </c>
+      <c r="AI2">
+        <v>33</v>
+      </c>
+      <c r="AJ2">
+        <v>34</v>
+      </c>
+      <c r="AK2">
+        <v>35</v>
+      </c>
+      <c r="AL2">
+        <v>36</v>
+      </c>
+      <c r="AM2">
+        <v>37</v>
+      </c>
+      <c r="AN2">
+        <v>38</v>
+      </c>
+      <c r="AO2">
+        <v>39</v>
+      </c>
+      <c r="AP2">
+        <v>40</v>
+      </c>
+      <c r="AQ2">
+        <v>41</v>
+      </c>
+      <c r="AR2">
+        <v>42</v>
+      </c>
+      <c r="AS2">
+        <v>43</v>
+      </c>
+      <c r="AT2">
+        <v>44</v>
+      </c>
+      <c r="AU2">
+        <v>45</v>
+      </c>
+      <c r="AV2">
+        <v>46</v>
+      </c>
+      <c r="AW2">
+        <v>47</v>
+      </c>
+      <c r="AX2">
+        <v>48</v>
+      </c>
+      <c r="AY2">
+        <v>49</v>
+      </c>
+      <c r="AZ2">
+        <v>50</v>
+      </c>
+      <c r="BA2">
+        <v>51</v>
+      </c>
+      <c r="BB2">
+        <v>52</v>
+      </c>
+      <c r="BC2">
+        <v>53</v>
+      </c>
+      <c r="BD2">
+        <v>54</v>
+      </c>
+      <c r="BE2">
+        <v>55</v>
+      </c>
+      <c r="BF2">
+        <v>56</v>
+      </c>
+      <c r="BG2">
+        <v>57</v>
+      </c>
+      <c r="BH2">
+        <v>58</v>
+      </c>
+      <c r="BI2">
+        <v>59</v>
+      </c>
+      <c r="BJ2">
+        <v>60</v>
+      </c>
+      <c r="BK2">
+        <v>61</v>
+      </c>
+      <c r="BL2">
+        <v>62</v>
+      </c>
+      <c r="BM2">
+        <v>63</v>
+      </c>
+      <c r="BN2">
+        <v>64</v>
+      </c>
+      <c r="BO2">
+        <v>65</v>
+      </c>
+      <c r="BP2">
+        <v>66</v>
+      </c>
+      <c r="BQ2">
+        <v>67</v>
+      </c>
+      <c r="BR2">
+        <v>68</v>
+      </c>
+      <c r="BS2">
+        <v>69</v>
+      </c>
+      <c r="BT2">
+        <v>70</v>
+      </c>
+      <c r="BU2">
+        <v>71</v>
+      </c>
+      <c r="BV2">
+        <v>72</v>
+      </c>
+      <c r="BW2">
+        <v>73</v>
+      </c>
+      <c r="BX2">
+        <v>74</v>
+      </c>
+      <c r="BY2">
+        <v>75</v>
+      </c>
+      <c r="BZ2">
+        <v>76</v>
+      </c>
+      <c r="CA2">
+        <v>77</v>
+      </c>
+      <c r="CB2">
+        <v>78</v>
+      </c>
+      <c r="CC2">
+        <v>79</v>
+      </c>
+      <c r="CD2">
+        <v>80</v>
+      </c>
+      <c r="CE2">
+        <v>81</v>
+      </c>
+      <c r="CF2">
+        <v>82</v>
+      </c>
+      <c r="CG2">
+        <v>83</v>
+      </c>
+      <c r="CH2">
+        <v>84</v>
+      </c>
+      <c r="CI2">
+        <v>85</v>
+      </c>
+      <c r="CJ2">
+        <v>86</v>
+      </c>
+      <c r="CK2">
+        <v>87</v>
+      </c>
+      <c r="CL2">
+        <v>88</v>
+      </c>
+      <c r="CM2">
+        <v>89</v>
+      </c>
+      <c r="CN2">
+        <v>90</v>
+      </c>
+      <c r="CO2">
+        <v>91</v>
+      </c>
+      <c r="CP2">
+        <v>92</v>
+      </c>
+      <c r="CQ2">
+        <v>93</v>
+      </c>
+      <c r="CR2">
+        <v>94</v>
+      </c>
+      <c r="CS2">
+        <v>95</v>
+      </c>
+      <c r="CT2">
+        <v>96</v>
+      </c>
+      <c r="CU2">
+        <v>97</v>
+      </c>
+      <c r="CV2">
+        <v>98</v>
+      </c>
+      <c r="CW2">
+        <v>99</v>
+      </c>
+      <c r="CX2">
+        <v>100</v>
+      </c>
+      <c r="CY2">
+        <v>101</v>
+      </c>
+      <c r="CZ2">
+        <v>102</v>
+      </c>
+      <c r="DA2">
+        <v>103</v>
+      </c>
+      <c r="DB2">
+        <v>104</v>
+      </c>
+      <c r="DC2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107">
+      <c r="C6">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>39</v>
+      </c>
+      <c r="I6">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>29</v>
+      </c>
+      <c r="N6">
+        <v>27</v>
+      </c>
+      <c r="O6">
+        <v>26</v>
+      </c>
+      <c r="P6">
+        <v>28</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>11</v>
+      </c>
+      <c r="S6">
+        <v>101</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>9</v>
+      </c>
+      <c r="V6">
+        <v>25</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>8</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>7</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>24</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>13</v>
+      </c>
+      <c r="AF6">
+        <v>16</v>
+      </c>
+      <c r="AG6">
+        <v>14</v>
+      </c>
+      <c r="AH6">
+        <v>17</v>
+      </c>
+      <c r="AI6">
+        <v>18</v>
+      </c>
+      <c r="AJ6">
+        <v>19</v>
+      </c>
+      <c r="AK6">
+        <v>15</v>
+      </c>
+      <c r="AL6">
+        <v>20</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>21</v>
+      </c>
+      <c r="AO6">
+        <v>22</v>
+      </c>
+      <c r="AP6">
+        <v>23</v>
+      </c>
+      <c r="AQ6">
+        <v>40</v>
+      </c>
+      <c r="AR6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107">
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>29</v>
+      </c>
+      <c r="N8">
+        <v>27</v>
+      </c>
+      <c r="O8">
+        <v>26</v>
+      </c>
+      <c r="P8">
+        <v>28</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>101</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <v>25</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>24</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>13</v>
+      </c>
+      <c r="AF8">
+        <v>16</v>
+      </c>
+      <c r="AG8">
+        <v>14</v>
+      </c>
+      <c r="AH8">
+        <v>17</v>
+      </c>
+      <c r="AI8">
+        <v>18</v>
+      </c>
+      <c r="AJ8">
+        <v>19</v>
+      </c>
+      <c r="AK8">
+        <v>15</v>
+      </c>
+      <c r="AL8">
+        <v>20</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>21</v>
+      </c>
+      <c r="AO8">
+        <v>22</v>
+      </c>
+      <c r="AP8">
+        <v>23</v>
+      </c>
+      <c r="AQ8">
+        <v>40</v>
+      </c>
+      <c r="AR8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>-35</v>
+      </c>
+      <c r="D9">
+        <v>-35</v>
+      </c>
+      <c r="E9">
+        <v>-35</v>
+      </c>
+      <c r="F9">
+        <v>-35</v>
+      </c>
+      <c r="G9">
+        <v>-35</v>
+      </c>
+      <c r="H9">
+        <v>-35</v>
+      </c>
+      <c r="I9">
+        <v>-35</v>
+      </c>
+      <c r="J9">
+        <v>-35</v>
+      </c>
+      <c r="K9">
+        <v>-35</v>
+      </c>
+      <c r="L9">
+        <v>-35</v>
+      </c>
+      <c r="M9">
+        <v>-35</v>
+      </c>
+      <c r="N9">
+        <v>-35</v>
+      </c>
+      <c r="O9">
+        <v>-35</v>
+      </c>
+      <c r="P9">
+        <v>-35</v>
+      </c>
+      <c r="Q9">
+        <v>-35</v>
+      </c>
+      <c r="R9">
+        <v>-30</v>
+      </c>
+      <c r="S9">
+        <v>-30</v>
+      </c>
+      <c r="T9">
+        <v>-20</v>
+      </c>
+      <c r="U9">
+        <v>-20</v>
+      </c>
+      <c r="V9">
+        <v>-20</v>
+      </c>
+      <c r="W9">
+        <v>-20</v>
+      </c>
+      <c r="X9">
+        <v>-20</v>
+      </c>
+      <c r="Y9">
+        <v>-20</v>
+      </c>
+      <c r="Z9">
+        <v>-20</v>
+      </c>
+      <c r="AA9">
+        <v>-20</v>
+      </c>
+      <c r="AB9">
+        <v>-15</v>
+      </c>
+      <c r="AC9">
+        <v>-15</v>
+      </c>
+      <c r="AD9">
+        <v>-15</v>
+      </c>
+      <c r="AE9">
+        <v>-15</v>
+      </c>
+      <c r="AF9">
+        <v>-15</v>
+      </c>
+      <c r="AG9">
+        <v>-5</v>
+      </c>
+      <c r="AH9">
+        <v>-5</v>
+      </c>
+      <c r="AI9">
+        <v>-5</v>
+      </c>
+      <c r="AJ9">
+        <v>-5</v>
+      </c>
+      <c r="AK9">
+        <v>-5</v>
+      </c>
+      <c r="AL9">
+        <v>-5</v>
+      </c>
+      <c r="AM9">
+        <v>-5</v>
+      </c>
+      <c r="AN9">
+        <v>-5</v>
+      </c>
+      <c r="AO9">
+        <v>-5</v>
+      </c>
+      <c r="AP9">
+        <v>-5</v>
+      </c>
+      <c r="AQ9">
+        <v>-5</v>
+      </c>
+      <c r="AR9">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
+      </c>
+      <c r="AJ10">
+        <v>2</v>
+      </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>2</v>
+      </c>
+      <c r="AP10">
+        <v>2</v>
+      </c>
+      <c r="AQ10">
+        <v>2</v>
+      </c>
+      <c r="AR10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>3.5</v>
+      </c>
+      <c r="D11">
+        <v>3.5</v>
+      </c>
+      <c r="E11">
+        <v>3.5</v>
+      </c>
+      <c r="F11">
+        <v>3.5</v>
+      </c>
+      <c r="G11">
+        <v>3.5</v>
+      </c>
+      <c r="H11">
+        <v>3.5</v>
+      </c>
+      <c r="I11">
+        <v>3.5</v>
+      </c>
+      <c r="J11">
+        <v>3.5</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <v>3.5</v>
+      </c>
+      <c r="M11">
+        <v>3.5</v>
+      </c>
+      <c r="N11">
+        <v>3.5</v>
+      </c>
+      <c r="O11">
+        <v>3.5</v>
+      </c>
+      <c r="P11">
+        <v>0.7</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>-0.23</v>
+      </c>
+      <c r="S11">
+        <v>0.7</v>
+      </c>
+      <c r="T11">
+        <v>-0.23</v>
+      </c>
+      <c r="U11">
+        <v>1.9</v>
+      </c>
+      <c r="V11">
+        <v>1.9</v>
+      </c>
+      <c r="W11">
+        <v>1.9</v>
+      </c>
+      <c r="X11">
+        <v>0.7</v>
+      </c>
+      <c r="Y11">
+        <v>0.7</v>
+      </c>
+      <c r="Z11">
+        <v>0.7</v>
+      </c>
+      <c r="AA11">
+        <v>0.7</v>
+      </c>
+      <c r="AB11">
+        <v>0.7</v>
+      </c>
+      <c r="AC11">
+        <v>0.7</v>
+      </c>
+      <c r="AD11">
+        <v>0.7</v>
+      </c>
+      <c r="AE11">
+        <v>0.7</v>
+      </c>
+      <c r="AF11">
+        <v>0.15</v>
+      </c>
+      <c r="AG11">
+        <v>0.1</v>
+      </c>
+      <c r="AH11">
+        <v>0.1</v>
+      </c>
+      <c r="AI11">
+        <v>0.1</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1</v>
+      </c>
+      <c r="AK11">
+        <v>0.1</v>
+      </c>
+      <c r="AL11">
+        <v>0.1</v>
+      </c>
+      <c r="AM11">
+        <v>0.1</v>
+      </c>
+      <c r="AN11">
+        <v>0.7</v>
+      </c>
+      <c r="AO11">
+        <v>0.7</v>
+      </c>
+      <c r="AP11">
+        <v>0.7</v>
+      </c>
+      <c r="AQ11">
+        <v>1.2</v>
+      </c>
+      <c r="AR11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:107">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>0.5</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>-0.2</v>
+      </c>
+      <c r="N12">
+        <v>-0.2</v>
+      </c>
+      <c r="O12">
+        <v>-0.2</v>
+      </c>
+      <c r="P12">
+        <v>-0.2</v>
+      </c>
+      <c r="Q12">
+        <v>-0.4</v>
+      </c>
+      <c r="R12">
+        <v>-3.28</v>
+      </c>
+      <c r="S12">
+        <v>-0.2</v>
+      </c>
+      <c r="T12">
+        <v>-3.28</v>
+      </c>
+      <c r="U12">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="V12">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="W12">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="X12">
+        <v>-0.2</v>
+      </c>
+      <c r="Y12">
+        <v>-0.2</v>
+      </c>
+      <c r="Z12">
+        <v>-0.2</v>
+      </c>
+      <c r="AA12">
+        <v>-0.2</v>
+      </c>
+      <c r="AB12">
+        <v>-0.2</v>
+      </c>
+      <c r="AC12">
+        <v>-0.2</v>
+      </c>
+      <c r="AD12">
+        <v>-0.2</v>
+      </c>
+      <c r="AE12">
+        <v>-0.2</v>
+      </c>
+      <c r="AF12">
+        <v>-0.2</v>
+      </c>
+      <c r="AG12">
+        <v>-0.2</v>
+      </c>
+      <c r="AH12">
+        <v>-0.2</v>
+      </c>
+      <c r="AI12">
+        <v>-0.2</v>
+      </c>
+      <c r="AJ12">
+        <v>-0.2</v>
+      </c>
+      <c r="AK12">
+        <v>-0.2</v>
+      </c>
+      <c r="AL12">
+        <v>-0.2</v>
+      </c>
+      <c r="AM12">
+        <v>-0.2</v>
+      </c>
+      <c r="AN12">
+        <v>-0.2</v>
+      </c>
+      <c r="AO12">
+        <v>-0.2</v>
+      </c>
+      <c r="AP12">
+        <v>-0.2</v>
+      </c>
+      <c r="AQ12">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="AR12">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:107">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+      <c r="M13">
+        <v>0.1</v>
+      </c>
+      <c r="N13">
+        <v>0.1</v>
+      </c>
+      <c r="O13">
+        <v>0.1</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>0.1</v>
+      </c>
+      <c r="R13">
+        <v>-0.5</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="W13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Z13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AA13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AB13">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0.1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:107">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:107">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>1.5</v>
+      </c>
+      <c r="R15">
+        <v>-3.0510000000000002</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>-3.0510000000000002</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+      <c r="AH15">
+        <v>3</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15">
+        <v>3</v>
+      </c>
+      <c r="AL15">
+        <v>3</v>
+      </c>
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
+      <c r="AO15">
+        <v>3</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>3.3</v>
+      </c>
+      <c r="AR15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:107">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>-0.1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>-0.1</v>
+      </c>
+      <c r="R17">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="U17">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="V17">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="W17">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="X17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Y17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Z17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AA17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>-0.08</v>
+      </c>
+      <c r="D18">
+        <v>-0.08</v>
+      </c>
+      <c r="E18">
+        <v>-0.08</v>
+      </c>
+      <c r="F18">
+        <v>-0.08</v>
+      </c>
+      <c r="G18">
+        <v>-0.08</v>
+      </c>
+      <c r="H18">
+        <v>-0.08</v>
+      </c>
+      <c r="I18">
+        <v>-0.08</v>
+      </c>
+      <c r="J18">
+        <v>-0.08</v>
+      </c>
+      <c r="K18">
+        <v>-0.08</v>
+      </c>
+      <c r="L18">
+        <v>-0.08</v>
+      </c>
+      <c r="M18">
+        <v>-0.08</v>
+      </c>
+      <c r="N18">
+        <v>-0.08</v>
+      </c>
+      <c r="O18">
+        <v>-0.08</v>
+      </c>
+      <c r="P18">
+        <v>-0.08</v>
+      </c>
+      <c r="Q18">
+        <v>-0.08</v>
+      </c>
+      <c r="R18">
+        <v>-0.08</v>
+      </c>
+      <c r="S18">
+        <v>-0.08</v>
+      </c>
+      <c r="T18">
+        <v>-0.08</v>
+      </c>
+      <c r="U18">
+        <v>-0.08</v>
+      </c>
+      <c r="V18">
+        <v>-0.08</v>
+      </c>
+      <c r="W18">
+        <v>-0.08</v>
+      </c>
+      <c r="X18">
+        <v>-0.08</v>
+      </c>
+      <c r="Y18">
+        <v>-0.08</v>
+      </c>
+      <c r="Z18">
+        <v>-0.08</v>
+      </c>
+      <c r="AA18">
+        <v>-0.08</v>
+      </c>
+      <c r="AB18">
+        <v>-0.08</v>
+      </c>
+      <c r="AC18">
+        <v>-0.08</v>
+      </c>
+      <c r="AD18">
+        <v>-0.08</v>
+      </c>
+      <c r="AE18">
+        <v>-0.08</v>
+      </c>
+      <c r="AF18">
+        <v>-0.08</v>
+      </c>
+      <c r="AG18">
+        <v>-0.08</v>
+      </c>
+      <c r="AH18">
+        <v>-0.08</v>
+      </c>
+      <c r="AI18">
+        <v>-0.08</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.08</v>
+      </c>
+      <c r="AK18">
+        <v>-0.08</v>
+      </c>
+      <c r="AL18">
+        <v>-0.08</v>
+      </c>
+      <c r="AM18">
+        <v>-0.08</v>
+      </c>
+      <c r="AN18">
+        <v>-0.08</v>
+      </c>
+      <c r="AO18">
+        <v>-0.08</v>
+      </c>
+      <c r="AP18">
+        <v>-0.08</v>
+      </c>
+      <c r="AQ18">
+        <v>-0.08</v>
+      </c>
+      <c r="AR18">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>3</v>
+      </c>
+      <c r="AE20">
+        <v>3</v>
+      </c>
+      <c r="AF20">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <v>3</v>
+      </c>
+      <c r="AH20">
+        <v>3</v>
+      </c>
+      <c r="AI20">
+        <v>3</v>
+      </c>
+      <c r="AJ20">
+        <v>3</v>
+      </c>
+      <c r="AK20">
+        <v>3</v>
+      </c>
+      <c r="AL20">
+        <v>3</v>
+      </c>
+      <c r="AM20">
+        <v>3</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.5</v>
+      </c>
+      <c r="N21">
+        <v>0.5</v>
+      </c>
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>0.5</v>
+      </c>
+      <c r="R21">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
+        <v>0.5</v>
+      </c>
+      <c r="AA21">
+        <v>0.5</v>
+      </c>
+      <c r="AB21">
+        <v>0.5</v>
+      </c>
+      <c r="AC21">
+        <v>0.5</v>
+      </c>
+      <c r="AD21">
+        <v>0.5</v>
+      </c>
+      <c r="AE21">
+        <v>0.5</v>
+      </c>
+      <c r="AF21">
+        <v>0.5</v>
+      </c>
+      <c r="AG21">
+        <v>0.5</v>
+      </c>
+      <c r="AH21">
+        <v>0.5</v>
+      </c>
+      <c r="AI21">
+        <v>0.5</v>
+      </c>
+      <c r="AJ21">
+        <v>0.5</v>
+      </c>
+      <c r="AK21">
+        <v>0.5</v>
+      </c>
+      <c r="AL21">
+        <v>0.5</v>
+      </c>
+      <c r="AM21">
+        <v>0.5</v>
+      </c>
+      <c r="AN21">
+        <v>0.5</v>
+      </c>
+      <c r="AO21">
+        <v>0.5</v>
+      </c>
+      <c r="AP21">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21">
+        <v>0.5</v>
+      </c>
+      <c r="AR21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="C28">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>39</v>
+      </c>
+      <c r="I28">
+        <v>38</v>
+      </c>
+      <c r="J28">
+        <v>32</v>
+      </c>
+      <c r="K28">
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>27</v>
+      </c>
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>28</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>11</v>
+      </c>
+      <c r="S28">
+        <v>101</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28">
+        <v>9</v>
+      </c>
+      <c r="V28">
+        <v>25</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
+      <c r="Y28">
+        <v>8</v>
+      </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
+      <c r="AA28">
+        <v>7</v>
+      </c>
+      <c r="AB28">
+        <v>3</v>
+      </c>
+      <c r="AC28">
+        <v>24</v>
+      </c>
+      <c r="AD28">
+        <v>2</v>
+      </c>
+      <c r="AE28">
+        <v>13</v>
+      </c>
+      <c r="AF28">
+        <v>16</v>
+      </c>
+      <c r="AG28">
+        <v>14</v>
+      </c>
+      <c r="AH28">
+        <v>17</v>
+      </c>
+      <c r="AI28">
+        <v>18</v>
+      </c>
+      <c r="AJ28">
+        <v>19</v>
+      </c>
+      <c r="AK28">
+        <v>15</v>
+      </c>
+      <c r="AL28">
+        <v>20</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>21</v>
+      </c>
+      <c r="AO28">
+        <v>22</v>
+      </c>
+      <c r="AP28">
+        <v>23</v>
+      </c>
+      <c r="AQ28">
+        <v>40</v>
+      </c>
+      <c r="AR28">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="C29">
+        <v>-35</v>
+      </c>
+      <c r="D29">
+        <v>-35</v>
+      </c>
+      <c r="E29">
+        <v>-35</v>
+      </c>
+      <c r="F29">
+        <v>-35</v>
+      </c>
+      <c r="G29">
+        <v>-35</v>
+      </c>
+      <c r="H29">
+        <v>-35</v>
+      </c>
+      <c r="I29">
+        <v>-35</v>
+      </c>
+      <c r="J29">
+        <v>-35</v>
+      </c>
+      <c r="K29">
+        <v>-35</v>
+      </c>
+      <c r="L29">
+        <v>-35</v>
+      </c>
+      <c r="M29">
+        <v>-35</v>
+      </c>
+      <c r="N29">
+        <v>-35</v>
+      </c>
+      <c r="O29">
+        <v>-35</v>
+      </c>
+      <c r="P29">
+        <v>-35</v>
+      </c>
+      <c r="Q29">
+        <v>-35</v>
+      </c>
+      <c r="R29">
+        <v>-30</v>
+      </c>
+      <c r="S29">
+        <v>-30</v>
+      </c>
+      <c r="T29">
+        <v>-20</v>
+      </c>
+      <c r="U29">
+        <v>-20</v>
+      </c>
+      <c r="V29">
+        <v>-20</v>
+      </c>
+      <c r="W29">
+        <v>-20</v>
+      </c>
+      <c r="X29">
+        <v>-20</v>
+      </c>
+      <c r="Y29">
+        <v>-20</v>
+      </c>
+      <c r="Z29">
+        <v>-20</v>
+      </c>
+      <c r="AA29">
+        <v>-20</v>
+      </c>
+      <c r="AB29">
+        <v>-15</v>
+      </c>
+      <c r="AC29">
+        <v>-15</v>
+      </c>
+      <c r="AD29">
+        <v>-15</v>
+      </c>
+      <c r="AE29">
+        <v>-15</v>
+      </c>
+      <c r="AF29">
+        <v>-15</v>
+      </c>
+      <c r="AG29">
+        <v>-5</v>
+      </c>
+      <c r="AH29">
+        <v>-5</v>
+      </c>
+      <c r="AI29">
+        <v>-5</v>
+      </c>
+      <c r="AJ29">
+        <v>-5</v>
+      </c>
+      <c r="AK29">
+        <v>-5</v>
+      </c>
+      <c r="AL29">
+        <v>-5</v>
+      </c>
+      <c r="AM29">
+        <v>-5</v>
+      </c>
+      <c r="AN29">
+        <v>-5</v>
+      </c>
+      <c r="AO29">
+        <v>-5</v>
+      </c>
+      <c r="AP29">
+        <v>-5</v>
+      </c>
+      <c r="AQ29">
+        <v>-5</v>
+      </c>
+      <c r="AR29">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>4</v>
+      </c>
+      <c r="AD30">
+        <v>4</v>
+      </c>
+      <c r="AE30">
+        <v>2</v>
+      </c>
+      <c r="AF30">
+        <v>2</v>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>2</v>
+      </c>
+      <c r="AL30">
+        <v>2</v>
+      </c>
+      <c r="AM30">
+        <v>2</v>
+      </c>
+      <c r="AN30">
+        <v>2</v>
+      </c>
+      <c r="AO30">
+        <v>2</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="C31">
+        <v>3.5</v>
+      </c>
+      <c r="D31">
+        <v>3.5</v>
+      </c>
+      <c r="E31">
+        <v>3.5</v>
+      </c>
+      <c r="F31">
+        <v>3.5</v>
+      </c>
+      <c r="G31">
+        <v>3.5</v>
+      </c>
+      <c r="H31">
+        <v>3.5</v>
+      </c>
+      <c r="I31">
+        <v>3.5</v>
+      </c>
+      <c r="J31">
+        <v>3.5</v>
+      </c>
+      <c r="K31">
+        <v>3.5</v>
+      </c>
+      <c r="L31">
+        <v>3.5</v>
+      </c>
+      <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31">
+        <v>3.5</v>
+      </c>
+      <c r="O31">
+        <v>3.5</v>
+      </c>
+      <c r="P31">
+        <v>0.7</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>-0.23</v>
+      </c>
+      <c r="S31">
+        <v>0.7</v>
+      </c>
+      <c r="T31">
+        <v>-0.23</v>
+      </c>
+      <c r="U31">
+        <v>1.9</v>
+      </c>
+      <c r="V31">
+        <v>1.9</v>
+      </c>
+      <c r="W31">
+        <v>1.9</v>
+      </c>
+      <c r="X31">
+        <v>0.7</v>
+      </c>
+      <c r="Y31">
+        <v>0.7</v>
+      </c>
+      <c r="Z31">
+        <v>0.7</v>
+      </c>
+      <c r="AA31">
+        <v>0.7</v>
+      </c>
+      <c r="AB31">
+        <v>0.7</v>
+      </c>
+      <c r="AC31">
+        <v>0.7</v>
+      </c>
+      <c r="AD31">
+        <v>0.7</v>
+      </c>
+      <c r="AE31">
+        <v>0.7</v>
+      </c>
+      <c r="AF31">
+        <v>0.15</v>
+      </c>
+      <c r="AG31">
+        <v>0.1</v>
+      </c>
+      <c r="AH31">
+        <v>0.1</v>
+      </c>
+      <c r="AI31">
+        <v>0.1</v>
+      </c>
+      <c r="AJ31">
+        <v>0.1</v>
+      </c>
+      <c r="AK31">
+        <v>0.1</v>
+      </c>
+      <c r="AL31">
+        <v>0.1</v>
+      </c>
+      <c r="AM31">
+        <v>0.1</v>
+      </c>
+      <c r="AN31">
+        <v>0.7</v>
+      </c>
+      <c r="AO31">
+        <v>0.7</v>
+      </c>
+      <c r="AP31">
+        <v>0.7</v>
+      </c>
+      <c r="AQ31">
+        <v>1.2</v>
+      </c>
+      <c r="AR31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.5</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>-0.2</v>
+      </c>
+      <c r="N32">
+        <v>-0.2</v>
+      </c>
+      <c r="O32">
+        <v>-0.2</v>
+      </c>
+      <c r="P32">
+        <v>-0.2</v>
+      </c>
+      <c r="Q32">
+        <v>-0.4</v>
+      </c>
+      <c r="R32">
+        <v>-3.28</v>
+      </c>
+      <c r="S32">
+        <v>-0.2</v>
+      </c>
+      <c r="T32">
+        <v>-3.28</v>
+      </c>
+      <c r="U32">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="V32">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="W32">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="X32">
+        <v>-0.2</v>
+      </c>
+      <c r="Y32">
+        <v>-0.2</v>
+      </c>
+      <c r="Z32">
+        <v>-0.2</v>
+      </c>
+      <c r="AA32">
+        <v>-0.2</v>
+      </c>
+      <c r="AB32">
+        <v>-0.2</v>
+      </c>
+      <c r="AC32">
+        <v>-0.2</v>
+      </c>
+      <c r="AD32">
+        <v>-0.2</v>
+      </c>
+      <c r="AE32">
+        <v>-0.2</v>
+      </c>
+      <c r="AF32">
+        <v>-0.2</v>
+      </c>
+      <c r="AG32">
+        <v>-0.2</v>
+      </c>
+      <c r="AH32">
+        <v>-0.2</v>
+      </c>
+      <c r="AI32">
+        <v>-0.2</v>
+      </c>
+      <c r="AJ32">
+        <v>-0.2</v>
+      </c>
+      <c r="AK32">
+        <v>-0.2</v>
+      </c>
+      <c r="AL32">
+        <v>-0.2</v>
+      </c>
+      <c r="AM32">
+        <v>-0.2</v>
+      </c>
+      <c r="AN32">
+        <v>-0.2</v>
+      </c>
+      <c r="AO32">
+        <v>-0.2</v>
+      </c>
+      <c r="AP32">
+        <v>-0.2</v>
+      </c>
+      <c r="AQ32">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="AR32">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:44">
+      <c r="C33">
+        <v>0.1</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
+      <c r="G33">
+        <v>0.1</v>
+      </c>
+      <c r="H33">
+        <v>0.1</v>
+      </c>
+      <c r="I33">
+        <v>0.1</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>0.1</v>
+      </c>
+      <c r="L33">
+        <v>0.1</v>
+      </c>
+      <c r="M33">
+        <v>0.1</v>
+      </c>
+      <c r="N33">
+        <v>0.1</v>
+      </c>
+      <c r="O33">
+        <v>0.1</v>
+      </c>
+      <c r="P33">
+        <v>0.1</v>
+      </c>
+      <c r="Q33">
+        <v>0.1</v>
+      </c>
+      <c r="R33">
+        <v>-0.5</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
+      </c>
+      <c r="W33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="X33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Z33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AA33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AB33">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0.1</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:44">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:44">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>1.5</v>
+      </c>
+      <c r="R35">
+        <v>-3.0510000000000002</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>-3.0510000000000002</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+      <c r="AC35">
+        <v>3</v>
+      </c>
+      <c r="AD35">
+        <v>2</v>
+      </c>
+      <c r="AE35">
+        <v>3</v>
+      </c>
+      <c r="AF35">
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <v>3</v>
+      </c>
+      <c r="AH35">
+        <v>3</v>
+      </c>
+      <c r="AI35">
+        <v>3</v>
+      </c>
+      <c r="AJ35">
+        <v>3</v>
+      </c>
+      <c r="AK35">
+        <v>3</v>
+      </c>
+      <c r="AL35">
+        <v>3</v>
+      </c>
+      <c r="AM35">
+        <v>2</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>3</v>
+      </c>
+      <c r="AQ35">
+        <v>3.3</v>
+      </c>
+      <c r="AR35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:44">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>-0.1</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:44">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>-0.1</v>
+      </c>
+      <c r="R37">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="U37">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="V37">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="W37">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="X37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Y37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Z37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AA37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:44">
+      <c r="C38">
+        <v>-0.08</v>
+      </c>
+      <c r="D38">
+        <v>-0.08</v>
+      </c>
+      <c r="E38">
+        <v>-0.08</v>
+      </c>
+      <c r="F38">
+        <v>-0.08</v>
+      </c>
+      <c r="G38">
+        <v>-0.08</v>
+      </c>
+      <c r="H38">
+        <v>-0.08</v>
+      </c>
+      <c r="I38">
+        <v>-0.08</v>
+      </c>
+      <c r="J38">
+        <v>-0.08</v>
+      </c>
+      <c r="K38">
+        <v>-0.08</v>
+      </c>
+      <c r="L38">
+        <v>-0.08</v>
+      </c>
+      <c r="M38">
+        <v>-0.08</v>
+      </c>
+      <c r="N38">
+        <v>-0.08</v>
+      </c>
+      <c r="O38">
+        <v>-0.08</v>
+      </c>
+      <c r="P38">
+        <v>-0.08</v>
+      </c>
+      <c r="Q38">
+        <v>-0.08</v>
+      </c>
+      <c r="R38">
+        <v>-0.08</v>
+      </c>
+      <c r="S38">
+        <v>-0.08</v>
+      </c>
+      <c r="T38">
+        <v>-0.08</v>
+      </c>
+      <c r="U38">
+        <v>-0.08</v>
+      </c>
+      <c r="V38">
+        <v>-0.08</v>
+      </c>
+      <c r="W38">
+        <v>-0.08</v>
+      </c>
+      <c r="X38">
+        <v>-0.08</v>
+      </c>
+      <c r="Y38">
+        <v>-0.08</v>
+      </c>
+      <c r="Z38">
+        <v>-0.08</v>
+      </c>
+      <c r="AA38">
+        <v>-0.08</v>
+      </c>
+      <c r="AB38">
+        <v>-0.08</v>
+      </c>
+      <c r="AC38">
+        <v>-0.08</v>
+      </c>
+      <c r="AD38">
+        <v>-0.08</v>
+      </c>
+      <c r="AE38">
+        <v>-0.08</v>
+      </c>
+      <c r="AF38">
+        <v>-0.08</v>
+      </c>
+      <c r="AG38">
+        <v>-0.08</v>
+      </c>
+      <c r="AH38">
+        <v>-0.08</v>
+      </c>
+      <c r="AI38">
+        <v>-0.08</v>
+      </c>
+      <c r="AJ38">
+        <v>-0.08</v>
+      </c>
+      <c r="AK38">
+        <v>-0.08</v>
+      </c>
+      <c r="AL38">
+        <v>-0.08</v>
+      </c>
+      <c r="AM38">
+        <v>-0.08</v>
+      </c>
+      <c r="AN38">
+        <v>-0.08</v>
+      </c>
+      <c r="AO38">
+        <v>-0.08</v>
+      </c>
+      <c r="AP38">
+        <v>-0.08</v>
+      </c>
+      <c r="AQ38">
+        <v>-0.08</v>
+      </c>
+      <c r="AR38">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="39" spans="3:44">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:44">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="X40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="Z40">
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>3</v>
+      </c>
+      <c r="AB40">
+        <v>3</v>
+      </c>
+      <c r="AC40">
+        <v>3</v>
+      </c>
+      <c r="AD40">
+        <v>3</v>
+      </c>
+      <c r="AE40">
+        <v>3</v>
+      </c>
+      <c r="AF40">
+        <v>3</v>
+      </c>
+      <c r="AG40">
+        <v>3</v>
+      </c>
+      <c r="AH40">
+        <v>3</v>
+      </c>
+      <c r="AI40">
+        <v>3</v>
+      </c>
+      <c r="AJ40">
+        <v>3</v>
+      </c>
+      <c r="AK40">
+        <v>3</v>
+      </c>
+      <c r="AL40">
+        <v>3</v>
+      </c>
+      <c r="AM40">
+        <v>3</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>3</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>3</v>
+      </c>
+      <c r="AR40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:44">
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>0.5</v>
+      </c>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>0.5</v>
+      </c>
+      <c r="M41">
+        <v>0.5</v>
+      </c>
+      <c r="N41">
+        <v>0.5</v>
+      </c>
+      <c r="O41">
+        <v>0.5</v>
+      </c>
+      <c r="P41">
+        <v>0.5</v>
+      </c>
+      <c r="Q41">
+        <v>0.5</v>
+      </c>
+      <c r="R41">
+        <v>0.5</v>
+      </c>
+      <c r="S41">
+        <v>0.5</v>
+      </c>
+      <c r="T41">
+        <v>0.5</v>
+      </c>
+      <c r="U41">
+        <v>0.5</v>
+      </c>
+      <c r="V41">
+        <v>0.5</v>
+      </c>
+      <c r="W41">
+        <v>0.5</v>
+      </c>
+      <c r="X41">
+        <v>0.5</v>
+      </c>
+      <c r="Y41">
+        <v>0.5</v>
+      </c>
+      <c r="Z41">
+        <v>0.5</v>
+      </c>
+      <c r="AA41">
+        <v>0.5</v>
+      </c>
+      <c r="AB41">
+        <v>0.5</v>
+      </c>
+      <c r="AC41">
+        <v>0.5</v>
+      </c>
+      <c r="AD41">
+        <v>0.5</v>
+      </c>
+      <c r="AE41">
+        <v>0.5</v>
+      </c>
+      <c r="AF41">
+        <v>0.5</v>
+      </c>
+      <c r="AG41">
+        <v>0.5</v>
+      </c>
+      <c r="AH41">
+        <v>0.5</v>
+      </c>
+      <c r="AI41">
+        <v>0.5</v>
+      </c>
+      <c r="AJ41">
+        <v>0.5</v>
+      </c>
+      <c r="AK41">
+        <v>0.5</v>
+      </c>
+      <c r="AL41">
+        <v>0.5</v>
+      </c>
+      <c r="AM41">
+        <v>0.5</v>
+      </c>
+      <c r="AN41">
+        <v>0.5</v>
+      </c>
+      <c r="AO41">
+        <v>0.5</v>
+      </c>
+      <c r="AP41">
+        <v>0.5</v>
+      </c>
+      <c r="AQ41">
+        <v>0.5</v>
+      </c>
+      <c r="AR41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:44">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>-31</v>
+      </c>
+      <c r="D49">
+        <v>-40</v>
+      </c>
+      <c r="E49">
+        <v>-20</v>
+      </c>
+      <c r="F49">
+        <v>-45</v>
+      </c>
+      <c r="G49">
+        <v>-5</v>
+      </c>
+      <c r="H49">
+        <v>-25</v>
+      </c>
+      <c r="I49">
+        <v>-15</v>
+      </c>
+      <c r="J49">
+        <v>-10</v>
+      </c>
+      <c r="K49">
+        <v>-10</v>
+      </c>
+      <c r="L49">
+        <v>-20</v>
+      </c>
+      <c r="M49">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>1.8</v>
+      </c>
+      <c r="D50">
+        <v>1.8</v>
+      </c>
+      <c r="E50">
+        <v>1.8</v>
+      </c>
+      <c r="F50">
+        <v>1.8</v>
+      </c>
+      <c r="G50">
+        <v>1.8</v>
+      </c>
+      <c r="H50">
+        <v>1.8</v>
+      </c>
+      <c r="I50">
+        <v>1.8</v>
+      </c>
+      <c r="J50">
+        <v>1.8</v>
+      </c>
+      <c r="K50">
+        <v>1.8</v>
+      </c>
+      <c r="L50">
+        <v>1.8</v>
+      </c>
+      <c r="M50">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>1.5</v>
+      </c>
+      <c r="D51">
+        <v>3.5</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>3.5</v>
+      </c>
+      <c r="G51">
+        <v>0.1</v>
+      </c>
+      <c r="H51">
+        <v>0.5</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
+        <v>0.5</v>
+      </c>
+      <c r="K51">
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>-4.5</v>
+      </c>
+      <c r="D52">
+        <v>-4.5</v>
+      </c>
+      <c r="E52">
+        <v>-4.5</v>
+      </c>
+      <c r="F52">
+        <v>-4.5</v>
+      </c>
+      <c r="G52">
+        <v>-4.5</v>
+      </c>
+      <c r="H52">
+        <v>-4.5</v>
+      </c>
+      <c r="I52">
+        <v>-4.5</v>
+      </c>
+      <c r="J52">
+        <v>-4.5</v>
+      </c>
+      <c r="K52">
+        <v>-4.5</v>
+      </c>
+      <c r="L52">
+        <v>-4.5</v>
+      </c>
+      <c r="M52">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>0.1</v>
+      </c>
+      <c r="D53">
+        <v>0.15</v>
+      </c>
+      <c r="E53">
+        <v>0.12</v>
+      </c>
+      <c r="F53">
+        <v>0.25</v>
+      </c>
+      <c r="G53">
+        <v>0.01</v>
+      </c>
+      <c r="H53">
+        <v>0.2</v>
+      </c>
+      <c r="I53">
+        <v>0.01</v>
+      </c>
+      <c r="J53">
+        <v>0.05</v>
+      </c>
+      <c r="K53">
+        <v>0.05</v>
+      </c>
+      <c r="L53">
+        <v>0.1</v>
+      </c>
+      <c r="M53">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>0.1</v>
+      </c>
+      <c r="D57">
+        <v>0.15</v>
+      </c>
+      <c r="E57">
+        <v>0.12</v>
+      </c>
+      <c r="F57">
+        <v>0.25</v>
+      </c>
+      <c r="G57">
+        <v>0.01</v>
+      </c>
+      <c r="H57">
+        <v>0.2</v>
+      </c>
+      <c r="I57">
+        <v>0.01</v>
+      </c>
+      <c r="J57">
+        <v>0.05</v>
+      </c>
+      <c r="K57">
+        <v>0.05</v>
+      </c>
+      <c r="L57">
+        <v>0.1</v>
+      </c>
+      <c r="M57">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="D59">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="E59">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="F59">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="G59">
+        <v>0.1</v>
+      </c>
+      <c r="H59">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="I59">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="J59">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="K59">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="M59">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B744E63-98EE-9E41-B1B6-45A5B31D2854}">
+  <dimension ref="H5:V46"/>
+  <sheetViews>
+    <sheetView topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:V46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="5" spans="8:22">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>-5</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+      <c r="L5">
+        <v>-0.2</v>
+      </c>
+      <c r="M5">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>-0.08</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="8:22">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>-15</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>0.7</v>
+      </c>
+      <c r="L6">
+        <v>-0.2</v>
+      </c>
+      <c r="M6">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>-0.08</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="8:22">
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>-15</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>0.7</v>
+      </c>
+      <c r="L7">
+        <v>-0.2</v>
+      </c>
+      <c r="M7">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>-0.08</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:22">
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>-20</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0.7</v>
+      </c>
+      <c r="L8">
+        <v>-0.2</v>
+      </c>
+      <c r="M8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R8">
+        <v>-0.08</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>0.5</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="8:22">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>-20</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>0.7</v>
+      </c>
+      <c r="L9">
+        <v>-0.2</v>
+      </c>
+      <c r="M9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R9">
+        <v>-0.08</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:22">
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>-20</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>1.9</v>
+      </c>
+      <c r="L10">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="R10">
+        <v>-0.08</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:22">
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>-20</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>0.7</v>
+      </c>
+      <c r="L11">
+        <v>-0.2</v>
+      </c>
+      <c r="M11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R11">
+        <v>-0.08</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:22">
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>-20</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>0.7</v>
+      </c>
+      <c r="L12">
+        <v>-0.2</v>
+      </c>
+      <c r="M12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R12">
+        <v>-0.08</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="8:22">
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>-20</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>1.9</v>
+      </c>
+      <c r="L13">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="R13">
+        <v>-0.08</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="8:22">
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>-20</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>-0.23</v>
+      </c>
+      <c r="L14">
+        <v>-3.28</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>-3.0510000000000002</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="R14">
+        <v>-0.08</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="8:22">
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>-30</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>-0.23</v>
+      </c>
+      <c r="L15">
+        <v>-3.28</v>
+      </c>
+      <c r="M15">
+        <v>-0.5</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>-3.0510000000000002</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="R15">
+        <v>-0.08</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="8:22">
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>-35</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>-0.4</v>
+      </c>
+      <c r="M16">
+        <v>0.1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1.5</v>
+      </c>
+      <c r="P16">
+        <v>-0.1</v>
+      </c>
+      <c r="Q16">
+        <v>-0.1</v>
+      </c>
+      <c r="R16">
+        <v>-0.08</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>0.5</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:22">
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>-15</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0.7</v>
+      </c>
+      <c r="L17">
+        <v>-0.2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>-0.08</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:22">
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>-5</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>0.1</v>
+      </c>
+      <c r="L18">
+        <v>-0.2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>-0.08</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>0.5</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:22">
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>-5</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="L19">
+        <v>-0.2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>-0.08</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:22">
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>-15</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>0.15</v>
+      </c>
+      <c r="L20">
+        <v>-0.2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>-0.08</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:22">
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>-5</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0.1</v>
+      </c>
+      <c r="L21">
+        <v>-0.2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>-0.08</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:22">
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>-5</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>0.1</v>
+      </c>
+      <c r="L22">
+        <v>-0.2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>-0.08</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:22">
+      <c r="H23">
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>-5</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0.1</v>
+      </c>
+      <c r="L23">
+        <v>-0.2</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>-0.08</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:22">
+      <c r="H24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>-5</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>0.1</v>
+      </c>
+      <c r="L24">
+        <v>-0.2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>-0.08</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:22">
+      <c r="H25">
+        <v>21</v>
+      </c>
+      <c r="I25">
+        <v>-5</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>0.7</v>
+      </c>
+      <c r="L25">
+        <v>-0.2</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>-0.08</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:22">
+      <c r="H26">
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <v>-5</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0.7</v>
+      </c>
+      <c r="L26">
+        <v>-0.2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>-0.08</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:22">
+      <c r="H27">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>-5</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>0.7</v>
+      </c>
+      <c r="L27">
+        <v>-0.2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>-0.08</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>0.5</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:22">
+      <c r="H28">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <v>-15</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>0.7</v>
+      </c>
+      <c r="L28">
+        <v>-0.2</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>-0.08</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:22">
+      <c r="H29">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <v>-20</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>1.9</v>
+      </c>
+      <c r="L29">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="M29">
+        <v>0.5</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="R29">
+        <v>-0.08</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:22">
+      <c r="H30">
+        <v>26</v>
+      </c>
+      <c r="I30">
+        <v>-35</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>3.5</v>
+      </c>
+      <c r="L30">
+        <v>-0.2</v>
+      </c>
+      <c r="M30">
+        <v>0.1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>-0.08</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>0.5</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:22">
+      <c r="H31">
+        <v>27</v>
+      </c>
+      <c r="I31">
+        <v>-35</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>3.5</v>
+      </c>
+      <c r="L31">
+        <v>-0.2</v>
+      </c>
+      <c r="M31">
+        <v>0.1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>-0.08</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>0.5</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:22">
+      <c r="H32">
+        <v>28</v>
+      </c>
+      <c r="I32">
+        <v>-35</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>0.7</v>
+      </c>
+      <c r="L32">
+        <v>-0.2</v>
+      </c>
+      <c r="M32">
+        <v>0.1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>-0.08</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>0.5</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:22">
+      <c r="H33">
+        <v>29</v>
+      </c>
+      <c r="I33">
+        <v>-35</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>3.5</v>
+      </c>
+      <c r="L33">
+        <v>-0.2</v>
+      </c>
+      <c r="M33">
+        <v>0.1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>-0.08</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>0.5</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:22">
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>-35</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>3.5</v>
+      </c>
+      <c r="L34">
+        <v>0.5</v>
+      </c>
+      <c r="M34">
+        <v>0.1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>-0.08</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>0.5</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:22">
+      <c r="H35">
+        <v>31</v>
+      </c>
+      <c r="I35">
+        <v>-35</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+      <c r="K35">
+        <v>3.5</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>-0.08</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>0.5</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:22">
+      <c r="H36">
+        <v>32</v>
+      </c>
+      <c r="I36">
+        <v>-35</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>3.5</v>
+      </c>
+      <c r="L36">
+        <v>0.5</v>
+      </c>
+      <c r="M36">
+        <v>0.1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>-0.08</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>0.5</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:22">
+      <c r="H37">
+        <v>33</v>
+      </c>
+      <c r="I37">
+        <v>-35</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>3.5</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>-0.08</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>0.5</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:22">
+      <c r="H38">
+        <v>34</v>
+      </c>
+      <c r="I38">
+        <v>-35</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>3.5</v>
+      </c>
+      <c r="L38">
+        <v>0.5</v>
+      </c>
+      <c r="M38">
+        <v>0.1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>-0.08</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38">
+        <v>0.5</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:22">
+      <c r="H39">
+        <v>35</v>
+      </c>
+      <c r="I39">
+        <v>-35</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>3.5</v>
+      </c>
+      <c r="L39">
+        <v>0.5</v>
+      </c>
+      <c r="M39">
+        <v>0.1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>-0.08</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>0.5</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:22">
+      <c r="H40">
+        <v>36</v>
+      </c>
+      <c r="I40">
+        <v>-35</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>3.5</v>
+      </c>
+      <c r="L40">
+        <v>0.5</v>
+      </c>
+      <c r="M40">
+        <v>0.1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>-0.08</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>0.5</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:22">
+      <c r="H41">
+        <v>37</v>
+      </c>
+      <c r="I41">
+        <v>-35</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>3.5</v>
+      </c>
+      <c r="L41">
+        <v>0.5</v>
+      </c>
+      <c r="M41">
+        <v>0.1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>-0.08</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>0.5</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:22">
+      <c r="H42">
+        <v>38</v>
+      </c>
+      <c r="I42">
+        <v>-35</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>3.5</v>
+      </c>
+      <c r="L42">
+        <v>0.5</v>
+      </c>
+      <c r="M42">
+        <v>0.1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>-0.08</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
+        <v>0.5</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:22">
+      <c r="H43">
+        <v>39</v>
+      </c>
+      <c r="I43">
+        <v>-35</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>3.5</v>
+      </c>
+      <c r="L43">
+        <v>0.5</v>
+      </c>
+      <c r="M43">
+        <v>0.1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>-0.08</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43">
+        <v>0.5</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="8:22">
+      <c r="H44">
+        <v>40</v>
+      </c>
+      <c r="I44">
+        <v>-5</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>1.2</v>
+      </c>
+      <c r="L44">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="M44">
+        <v>0.1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>3.3</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="R44">
+        <v>-0.08</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>0.5</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="8:22">
+      <c r="H45">
+        <v>101</v>
+      </c>
+      <c r="I45">
+        <v>-30</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+      <c r="K45">
+        <v>0.7</v>
+      </c>
+      <c r="L45">
+        <v>-0.2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>-0.08</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>0.5</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:22">
+      <c r="H46">
+        <v>102</v>
+      </c>
+      <c r="I46">
+        <v>-5</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>0.7</v>
+      </c>
+      <c r="L46">
+        <v>-0.2</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>-0.08</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>0.5</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H5:V46">
+    <sortCondition ref="H5:H46"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F47C53-4B91-F341-8041-BED61E007039}">
+  <dimension ref="A1:AQ15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:43">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+      <c r="AP1">
+        <v>101</v>
+      </c>
+      <c r="AQ1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>-5</v>
+      </c>
+      <c r="C2">
+        <v>-15</v>
+      </c>
+      <c r="D2">
+        <v>-15</v>
+      </c>
+      <c r="E2">
+        <v>-20</v>
+      </c>
+      <c r="F2">
+        <v>-20</v>
+      </c>
+      <c r="G2">
+        <v>-20</v>
+      </c>
+      <c r="H2">
+        <v>-20</v>
+      </c>
+      <c r="I2">
+        <v>-20</v>
+      </c>
+      <c r="J2">
+        <v>-20</v>
+      </c>
+      <c r="K2">
+        <v>-20</v>
+      </c>
+      <c r="L2">
+        <v>-30</v>
+      </c>
+      <c r="M2">
+        <v>-35</v>
+      </c>
+      <c r="N2">
+        <v>-15</v>
+      </c>
+      <c r="O2">
+        <v>-5</v>
+      </c>
+      <c r="P2">
+        <v>-5</v>
+      </c>
+      <c r="Q2">
+        <v>-15</v>
+      </c>
+      <c r="R2">
+        <v>-5</v>
+      </c>
+      <c r="S2">
+        <v>-5</v>
+      </c>
+      <c r="T2">
+        <v>-5</v>
+      </c>
+      <c r="U2">
+        <v>-5</v>
+      </c>
+      <c r="V2">
+        <v>-5</v>
+      </c>
+      <c r="W2">
+        <v>-5</v>
+      </c>
+      <c r="X2">
+        <v>-5</v>
+      </c>
+      <c r="Y2">
+        <v>-15</v>
+      </c>
+      <c r="Z2">
+        <v>-20</v>
+      </c>
+      <c r="AA2">
+        <v>-35</v>
+      </c>
+      <c r="AB2">
+        <v>-35</v>
+      </c>
+      <c r="AC2">
+        <v>-35</v>
+      </c>
+      <c r="AD2">
+        <v>-35</v>
+      </c>
+      <c r="AE2">
+        <v>-35</v>
+      </c>
+      <c r="AF2">
+        <v>-35</v>
+      </c>
+      <c r="AG2">
+        <v>-35</v>
+      </c>
+      <c r="AH2">
+        <v>-35</v>
+      </c>
+      <c r="AI2">
+        <v>-35</v>
+      </c>
+      <c r="AJ2">
+        <v>-35</v>
+      </c>
+      <c r="AK2">
+        <v>-35</v>
+      </c>
+      <c r="AL2">
+        <v>-35</v>
+      </c>
+      <c r="AM2">
+        <v>-35</v>
+      </c>
+      <c r="AN2">
+        <v>-35</v>
+      </c>
+      <c r="AO2">
+        <v>-5</v>
+      </c>
+      <c r="AP2">
+        <v>-30</v>
+      </c>
+      <c r="AQ2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>5</v>
+      </c>
+      <c r="AH3">
+        <v>5</v>
+      </c>
+      <c r="AI3">
+        <v>5</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <v>5</v>
+      </c>
+      <c r="AL3">
+        <v>5</v>
+      </c>
+      <c r="AM3">
+        <v>5</v>
+      </c>
+      <c r="AN3">
+        <v>5</v>
+      </c>
+      <c r="AO3">
+        <v>2</v>
+      </c>
+      <c r="AP3">
+        <v>5</v>
+      </c>
+      <c r="AQ3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.7</v>
+      </c>
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>1.9</v>
+      </c>
+      <c r="H4">
+        <v>0.7</v>
+      </c>
+      <c r="I4">
+        <v>0.7</v>
+      </c>
+      <c r="J4">
+        <v>1.9</v>
+      </c>
+      <c r="K4">
+        <v>-0.23</v>
+      </c>
+      <c r="L4">
+        <v>-0.23</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.7</v>
+      </c>
+      <c r="O4">
+        <v>0.1</v>
+      </c>
+      <c r="P4">
+        <v>0.1</v>
+      </c>
+      <c r="Q4">
+        <v>0.15</v>
+      </c>
+      <c r="R4">
+        <v>0.1</v>
+      </c>
+      <c r="S4">
+        <v>0.1</v>
+      </c>
+      <c r="T4">
+        <v>0.1</v>
+      </c>
+      <c r="U4">
+        <v>0.1</v>
+      </c>
+      <c r="V4">
+        <v>0.7</v>
+      </c>
+      <c r="W4">
+        <v>0.7</v>
+      </c>
+      <c r="X4">
+        <v>0.7</v>
+      </c>
+      <c r="Y4">
+        <v>0.7</v>
+      </c>
+      <c r="Z4">
+        <v>1.9</v>
+      </c>
+      <c r="AA4">
+        <v>3.5</v>
+      </c>
+      <c r="AB4">
+        <v>3.5</v>
+      </c>
+      <c r="AC4">
+        <v>0.7</v>
+      </c>
+      <c r="AD4">
+        <v>3.5</v>
+      </c>
+      <c r="AE4">
+        <v>3.5</v>
+      </c>
+      <c r="AF4">
+        <v>3.5</v>
+      </c>
+      <c r="AG4">
+        <v>3.5</v>
+      </c>
+      <c r="AH4">
+        <v>3.5</v>
+      </c>
+      <c r="AI4">
+        <v>3.5</v>
+      </c>
+      <c r="AJ4">
+        <v>3.5</v>
+      </c>
+      <c r="AK4">
+        <v>3.5</v>
+      </c>
+      <c r="AL4">
+        <v>3.5</v>
+      </c>
+      <c r="AM4">
+        <v>3.5</v>
+      </c>
+      <c r="AN4">
+        <v>3.5</v>
+      </c>
+      <c r="AO4">
+        <v>1.2</v>
+      </c>
+      <c r="AP4">
+        <v>0.7</v>
+      </c>
+      <c r="AQ4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>-0.2</v>
+      </c>
+      <c r="C5">
+        <v>-0.2</v>
+      </c>
+      <c r="D5">
+        <v>-0.2</v>
+      </c>
+      <c r="E5">
+        <v>-0.2</v>
+      </c>
+      <c r="F5">
+        <v>-0.2</v>
+      </c>
+      <c r="G5">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="H5">
+        <v>-0.2</v>
+      </c>
+      <c r="I5">
+        <v>-0.2</v>
+      </c>
+      <c r="J5">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="K5">
+        <v>-3.28</v>
+      </c>
+      <c r="L5">
+        <v>-3.28</v>
+      </c>
+      <c r="M5">
+        <v>-0.4</v>
+      </c>
+      <c r="N5">
+        <v>-0.2</v>
+      </c>
+      <c r="O5">
+        <v>-0.2</v>
+      </c>
+      <c r="P5">
+        <v>-0.2</v>
+      </c>
+      <c r="Q5">
+        <v>-0.2</v>
+      </c>
+      <c r="R5">
+        <v>-0.2</v>
+      </c>
+      <c r="S5">
+        <v>-0.2</v>
+      </c>
+      <c r="T5">
+        <v>-0.2</v>
+      </c>
+      <c r="U5">
+        <v>-0.2</v>
+      </c>
+      <c r="V5">
+        <v>-0.2</v>
+      </c>
+      <c r="W5">
+        <v>-0.2</v>
+      </c>
+      <c r="X5">
+        <v>-0.2</v>
+      </c>
+      <c r="Y5">
+        <v>-0.2</v>
+      </c>
+      <c r="Z5">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-0.2</v>
+      </c>
+      <c r="AB5">
+        <v>-0.2</v>
+      </c>
+      <c r="AC5">
+        <v>-0.2</v>
+      </c>
+      <c r="AD5">
+        <v>-0.2</v>
+      </c>
+      <c r="AE5">
+        <v>0.5</v>
+      </c>
+      <c r="AF5">
+        <v>0.5</v>
+      </c>
+      <c r="AG5">
+        <v>0.5</v>
+      </c>
+      <c r="AH5">
+        <v>0.5</v>
+      </c>
+      <c r="AI5">
+        <v>0.5</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5</v>
+      </c>
+      <c r="AK5">
+        <v>0.5</v>
+      </c>
+      <c r="AL5">
+        <v>0.5</v>
+      </c>
+      <c r="AM5">
+        <v>0.5</v>
+      </c>
+      <c r="AN5">
+        <v>0.5</v>
+      </c>
+      <c r="AO5">
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="AP5">
+        <v>-0.2</v>
+      </c>
+      <c r="AQ5">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>-0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0.5</v>
+      </c>
+      <c r="AA6">
+        <v>0.1</v>
+      </c>
+      <c r="AB6">
+        <v>0.1</v>
+      </c>
+      <c r="AC6">
+        <v>0.1</v>
+      </c>
+      <c r="AD6">
+        <v>0.1</v>
+      </c>
+      <c r="AE6">
+        <v>0.1</v>
+      </c>
+      <c r="AF6">
+        <v>0.1</v>
+      </c>
+      <c r="AG6">
+        <v>0.1</v>
+      </c>
+      <c r="AH6">
+        <v>0.1</v>
+      </c>
+      <c r="AI6">
+        <v>0.1</v>
+      </c>
+      <c r="AJ6">
+        <v>0.1</v>
+      </c>
+      <c r="AK6">
+        <v>0.1</v>
+      </c>
+      <c r="AL6">
+        <v>0.1</v>
+      </c>
+      <c r="AM6">
+        <v>0.1</v>
+      </c>
+      <c r="AN6">
+        <v>0.1</v>
+      </c>
+      <c r="AO6">
+        <v>0.1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>-3.0510000000000002</v>
+      </c>
+      <c r="L8">
+        <v>-3.0510000000000002</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>3</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>3</v>
+      </c>
+      <c r="AJ8">
+        <v>3</v>
+      </c>
+      <c r="AK8">
+        <v>3</v>
+      </c>
+      <c r="AL8">
+        <v>3</v>
+      </c>
+      <c r="AM8">
+        <v>3</v>
+      </c>
+      <c r="AN8">
+        <v>3</v>
+      </c>
+      <c r="AO8">
+        <v>3.3</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>-0.1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G10">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J10">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="K10">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="L10">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="M10">
+        <v>-0.1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>-0.08</v>
+      </c>
+      <c r="C11">
+        <v>-0.08</v>
+      </c>
+      <c r="D11">
+        <v>-0.08</v>
+      </c>
+      <c r="E11">
+        <v>-0.08</v>
+      </c>
+      <c r="F11">
+        <v>-0.08</v>
+      </c>
+      <c r="G11">
+        <v>-0.08</v>
+      </c>
+      <c r="H11">
+        <v>-0.08</v>
+      </c>
+      <c r="I11">
+        <v>-0.08</v>
+      </c>
+      <c r="J11">
+        <v>-0.08</v>
+      </c>
+      <c r="K11">
+        <v>-0.08</v>
+      </c>
+      <c r="L11">
+        <v>-0.08</v>
+      </c>
+      <c r="M11">
+        <v>-0.08</v>
+      </c>
+      <c r="N11">
+        <v>-0.08</v>
+      </c>
+      <c r="O11">
+        <v>-0.08</v>
+      </c>
+      <c r="P11">
+        <v>-0.08</v>
+      </c>
+      <c r="Q11">
+        <v>-0.08</v>
+      </c>
+      <c r="R11">
+        <v>-0.08</v>
+      </c>
+      <c r="S11">
+        <v>-0.08</v>
+      </c>
+      <c r="T11">
+        <v>-0.08</v>
+      </c>
+      <c r="U11">
+        <v>-0.08</v>
+      </c>
+      <c r="V11">
+        <v>-0.08</v>
+      </c>
+      <c r="W11">
+        <v>-0.08</v>
+      </c>
+      <c r="X11">
+        <v>-0.08</v>
+      </c>
+      <c r="Y11">
+        <v>-0.08</v>
+      </c>
+      <c r="Z11">
+        <v>-0.08</v>
+      </c>
+      <c r="AA11">
+        <v>-0.08</v>
+      </c>
+      <c r="AB11">
+        <v>-0.08</v>
+      </c>
+      <c r="AC11">
+        <v>-0.08</v>
+      </c>
+      <c r="AD11">
+        <v>-0.08</v>
+      </c>
+      <c r="AE11">
+        <v>-0.08</v>
+      </c>
+      <c r="AF11">
+        <v>-0.08</v>
+      </c>
+      <c r="AG11">
+        <v>-0.08</v>
+      </c>
+      <c r="AH11">
+        <v>-0.08</v>
+      </c>
+      <c r="AI11">
+        <v>-0.08</v>
+      </c>
+      <c r="AJ11">
+        <v>-0.08</v>
+      </c>
+      <c r="AK11">
+        <v>-0.08</v>
+      </c>
+      <c r="AL11">
+        <v>-0.08</v>
+      </c>
+      <c r="AM11">
+        <v>-0.08</v>
+      </c>
+      <c r="AN11">
+        <v>-0.08</v>
+      </c>
+      <c r="AO11">
+        <v>-0.08</v>
+      </c>
+      <c r="AP11">
+        <v>-0.08</v>
+      </c>
+      <c r="AQ11">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>3</v>
+      </c>
+      <c r="AF13">
+        <v>3</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+      <c r="AH13">
+        <v>3</v>
+      </c>
+      <c r="AI13">
+        <v>3</v>
+      </c>
+      <c r="AJ13">
+        <v>3</v>
+      </c>
+      <c r="AK13">
+        <v>3</v>
+      </c>
+      <c r="AL13">
+        <v>3</v>
+      </c>
+      <c r="AM13">
+        <v>3</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13">
+        <v>3</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <v>0.5</v>
+      </c>
+      <c r="O14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0.5</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+      <c r="X14">
+        <v>0.5</v>
+      </c>
+      <c r="Y14">
+        <v>0.5</v>
+      </c>
+      <c r="Z14">
+        <v>0.5</v>
+      </c>
+      <c r="AA14">
+        <v>0.5</v>
+      </c>
+      <c r="AB14">
+        <v>0.5</v>
+      </c>
+      <c r="AC14">
+        <v>0.5</v>
+      </c>
+      <c r="AD14">
+        <v>0.5</v>
+      </c>
+      <c r="AE14">
+        <v>0.5</v>
+      </c>
+      <c r="AF14">
+        <v>0.5</v>
+      </c>
+      <c r="AG14">
+        <v>0.5</v>
+      </c>
+      <c r="AH14">
+        <v>0.5</v>
+      </c>
+      <c r="AI14">
+        <v>0.5</v>
+      </c>
+      <c r="AJ14">
+        <v>0.5</v>
+      </c>
+      <c r="AK14">
+        <v>0.5</v>
+      </c>
+      <c r="AL14">
+        <v>0.5</v>
+      </c>
+      <c r="AM14">
+        <v>0.5</v>
+      </c>
+      <c r="AN14">
+        <v>0.5</v>
+      </c>
+      <c r="AO14">
+        <v>0.5</v>
+      </c>
+      <c r="AP14">
+        <v>0.5</v>
+      </c>
+      <c r="AQ14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>